--- a/OnBoard/output/trust/catch/Catch_Trust_44.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_44.xlsx
@@ -1187,7 +1187,7 @@
         <v>0.156</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20">
         <v>11.24436363636364</v>
@@ -1310,7 +1310,7 @@
         <v>0.242</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23">
         <v>11.24436363636364</v>
@@ -1392,7 +1392,7 @@
         <v>0.001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
         <v>11.24436363636364</v>
@@ -2089,7 +2089,7 @@
         <v>0.735</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
         <v>11.24436363636364</v>
@@ -2130,7 +2130,7 @@
         <v>0.107</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>11.24436363636364</v>
@@ -2253,7 +2253,7 @@
         <v>0.112</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>11.24436363636364</v>
